--- a/runs/run540/NotionalETEOutput540.xlsx
+++ b/runs/run540/NotionalETEOutput540.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER0_State_Update</t>
+    <t>Missile_ANGERMAX2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER0_347.MISSILE_HELLMASKER0_347</t>
+    <t>MISSILE_ANGERMAX2_119.MISSILE_ANGERMAX2_119</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER0</t>
+    <t>MISSILE_ANGERMAX2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1569.217867980651</v>
+        <v>-1552.794537737946</v>
       </c>
       <c r="J2">
-        <v>2038.189000025034</v>
+        <v>1983.04521068287</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1511.733229875108</v>
+        <v>-1482.270122398006</v>
       </c>
       <c r="J3">
-        <v>1874.119489851915</v>
+        <v>1916.983491838141</v>
       </c>
       <c r="K3">
-        <v>318.8477794600513</v>
+        <v>308.5379298778336</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1441.135350552207</v>
+        <v>-1368.303237698253</v>
       </c>
       <c r="J4">
-        <v>1876.907576953417</v>
+        <v>1927.623917151731</v>
       </c>
       <c r="K4">
-        <v>570.1877674011986</v>
+        <v>580.9310811807932</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1345.690645203979</v>
+        <v>-1384.255044320794</v>
       </c>
       <c r="J5">
-        <v>1772.464275175998</v>
+        <v>1779.19067148672</v>
       </c>
       <c r="K5">
-        <v>834.03795690371</v>
+        <v>861.7448199075062</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1367.148384473504</v>
+        <v>-1386.358798104612</v>
       </c>
       <c r="J6">
-        <v>1813.880958749438</v>
+        <v>1864.691037050136</v>
       </c>
       <c r="K6">
-        <v>1162.922603002609</v>
+        <v>1149.476834212737</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1318.647947122964</v>
+        <v>-1360.415624506905</v>
       </c>
       <c r="J7">
-        <v>1828.880498918075</v>
+        <v>1771.98541903494</v>
       </c>
       <c r="K7">
-        <v>1435.267328871541</v>
+        <v>1352.997636681791</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1312.129252564357</v>
+        <v>-1285.505732486885</v>
       </c>
       <c r="J8">
-        <v>1684.385069757417</v>
+        <v>1676.428727172716</v>
       </c>
       <c r="K8">
-        <v>1517.472059323443</v>
+        <v>1546.449618304223</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.5095072804648</v>
+        <v>-102.6852453756046</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1249.099351861845</v>
+        <v>-1245.720169668436</v>
       </c>
       <c r="J9">
-        <v>1711.735992800834</v>
+        <v>1640.198816960932</v>
       </c>
       <c r="K9">
-        <v>1876.032816918702</v>
+        <v>1847.351303168408</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>210.7603868226718</v>
+        <v>219.0181349619755</v>
       </c>
       <c r="G10">
-        <v>-84.68916641329763</v>
+        <v>-80.94859536644256</v>
       </c>
       <c r="H10">
-        <v>864.8217328363381</v>
+        <v>879.8492721211076</v>
       </c>
       <c r="I10">
-        <v>-1190.627916271761</v>
+        <v>-1208.755279595035</v>
       </c>
       <c r="J10">
-        <v>1572.09579220639</v>
+        <v>1614.065118520476</v>
       </c>
       <c r="K10">
-        <v>1948.896512660188</v>
+        <v>2044.066758949546</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>167.0654934835135</v>
+        <v>175.258514060151</v>
       </c>
       <c r="G11">
-        <v>-66.81538802398761</v>
+        <v>-65.55432212194938</v>
       </c>
       <c r="H11">
-        <v>1102.82401355134</v>
+        <v>1041.209211658541</v>
       </c>
       <c r="I11">
-        <v>-1185.227348412231</v>
+        <v>-1229.280143400686</v>
       </c>
       <c r="J11">
-        <v>1611.58250767089</v>
+        <v>1546.169093261213</v>
       </c>
       <c r="K11">
-        <v>2166.931369185363</v>
+        <v>2252.554816327966</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.0384054637177</v>
+        <v>133.816805043918</v>
       </c>
       <c r="G12">
-        <v>-51.72050926665917</v>
+        <v>-51.60239571965159</v>
       </c>
       <c r="H12">
-        <v>1138.044442846518</v>
+        <v>1197.106157398278</v>
       </c>
       <c r="I12">
-        <v>-1199.798797775418</v>
+        <v>-1118.567267552728</v>
       </c>
       <c r="J12">
-        <v>1538.383013112543</v>
+        <v>1490.681713739993</v>
       </c>
       <c r="K12">
-        <v>2442.08515838544</v>
+        <v>2299.076970569</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.4570886970787</v>
+        <v>124.4838462610868</v>
       </c>
       <c r="G13">
-        <v>-33.66367792332431</v>
+        <v>-34.36675430285391</v>
       </c>
       <c r="H13">
-        <v>1208.762122829763</v>
+        <v>1262.639182712448</v>
       </c>
       <c r="I13">
-        <v>-1150.105139915221</v>
+        <v>-1110.315006255772</v>
       </c>
       <c r="J13">
-        <v>1485.146530909452</v>
+        <v>1423.548596833043</v>
       </c>
       <c r="K13">
-        <v>2438.806241538943</v>
+        <v>2431.951517100297</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.0686231679974</v>
+        <v>107.9694683442065</v>
       </c>
       <c r="G14">
-        <v>-17.90134882085356</v>
+        <v>-17.24585928645276</v>
       </c>
       <c r="H14">
-        <v>1357.880977000936</v>
+        <v>1379.815642533184</v>
       </c>
       <c r="I14">
-        <v>-1092.644454191153</v>
+        <v>-1062.666574916826</v>
       </c>
       <c r="J14">
-        <v>1381.954033146605</v>
+        <v>1418.785786126064</v>
       </c>
       <c r="K14">
-        <v>2627.130036931595</v>
+        <v>2521.220437395681</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>96.40823708307413</v>
+        <v>104.4198686031386</v>
       </c>
       <c r="G15">
-        <v>-0.9543202217147689</v>
+        <v>-0.8891393027059047</v>
       </c>
       <c r="H15">
-        <v>1400.909894656085</v>
+        <v>1419.125785153827</v>
       </c>
       <c r="I15">
-        <v>-1065.338667276585</v>
+        <v>-1058.648323448519</v>
       </c>
       <c r="J15">
-        <v>1387.179757645082</v>
+        <v>1358.76639270626</v>
       </c>
       <c r="K15">
-        <v>2761.528036340777</v>
+        <v>2691.057618863737</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.54162838571892</v>
+        <v>96.66546598184868</v>
       </c>
       <c r="G16">
-        <v>14.8378777515734</v>
+        <v>15.52399293410033</v>
       </c>
       <c r="H16">
-        <v>1481.703890150386</v>
+        <v>1454.842564715542</v>
       </c>
       <c r="I16">
-        <v>-1055.256435923608</v>
+        <v>-1011.835213597923</v>
       </c>
       <c r="J16">
-        <v>1346.944433547553</v>
+        <v>1302.272894855605</v>
       </c>
       <c r="K16">
-        <v>2905.17923792563</v>
+        <v>2933.194743718724</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.4305953030582</v>
+        <v>88.94910882591404</v>
       </c>
       <c r="G17">
-        <v>31.75091870487488</v>
+        <v>31.13015166253522</v>
       </c>
       <c r="H17">
-        <v>1447.629987695723</v>
+        <v>1518.58502813914</v>
       </c>
       <c r="I17">
-        <v>-957.285614652935</v>
+        <v>-932.5866606152316</v>
       </c>
       <c r="J17">
-        <v>1236.052228249054</v>
+        <v>1273.373871729728</v>
       </c>
       <c r="K17">
-        <v>2916.713042276458</v>
+        <v>2857.952631105032</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.77884218051611</v>
+        <v>80.881038559915</v>
       </c>
       <c r="G18">
-        <v>47.11930786117645</v>
+        <v>49.26665423619351</v>
       </c>
       <c r="H18">
-        <v>1478.176040966629</v>
+        <v>1437.350992601813</v>
       </c>
       <c r="I18">
-        <v>-891.8087920204657</v>
+        <v>-927.2435259872825</v>
       </c>
       <c r="J18">
-        <v>1219.119929684085</v>
+        <v>1175.103864982252</v>
       </c>
       <c r="K18">
-        <v>3075.333418341601</v>
+        <v>3162.86943041598</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.54052337364965</v>
+        <v>74.98888259916518</v>
       </c>
       <c r="G19">
-        <v>63.92765618473924</v>
+        <v>65.90087310255539</v>
       </c>
       <c r="H19">
-        <v>1490.747090776284</v>
+        <v>1602.720425672008</v>
       </c>
       <c r="I19">
-        <v>-842.2490717415687</v>
+        <v>-844.8157008585711</v>
       </c>
       <c r="J19">
-        <v>1166.003388853676</v>
+        <v>1162.04516755812</v>
       </c>
       <c r="K19">
-        <v>3036.892766438623</v>
+        <v>3208.104355317816</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.65706231540234</v>
+        <v>76.85624332909917</v>
       </c>
       <c r="G20">
-        <v>82.8406280973157</v>
+        <v>82.53272624612737</v>
       </c>
       <c r="H20">
-        <v>1508.583089310247</v>
+        <v>1529.728105668085</v>
       </c>
       <c r="I20">
-        <v>-800.5013104652214</v>
+        <v>-809.5317865440943</v>
       </c>
       <c r="J20">
-        <v>1084.533470858852</v>
+        <v>1104.932750894248</v>
       </c>
       <c r="K20">
-        <v>3074.961823812368</v>
+        <v>3087.842232288696</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.08331033762597</v>
+        <v>67.78329270993252</v>
       </c>
       <c r="G21">
-        <v>94.06730079726692</v>
+        <v>93.86394964349778</v>
       </c>
       <c r="H21">
-        <v>1662.256990800226</v>
+        <v>1560.83461974266</v>
       </c>
       <c r="I21">
-        <v>-822.2880437209016</v>
+        <v>-789.6855936265686</v>
       </c>
       <c r="J21">
-        <v>1087.554269212143</v>
+        <v>1103.585702130576</v>
       </c>
       <c r="K21">
-        <v>3074.02644275513</v>
+        <v>3328.419463858516</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.86198282525918</v>
+        <v>65.1706516446972</v>
       </c>
       <c r="G22">
-        <v>113.3027845459485</v>
+        <v>116.0319522589651</v>
       </c>
       <c r="H22">
-        <v>1560.337344100178</v>
+        <v>1536.977264070758</v>
       </c>
       <c r="I22">
-        <v>-773.0081236070737</v>
+        <v>-717.5539504425865</v>
       </c>
       <c r="J22">
-        <v>1059.197557407082</v>
+        <v>1035.256140555332</v>
       </c>
       <c r="K22">
-        <v>3167.010187766421</v>
+        <v>3071.475909547309</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.20575622682635</v>
+        <v>64.7868916110807</v>
       </c>
       <c r="G23">
-        <v>137.415696990454</v>
+        <v>135.7823875587921</v>
       </c>
       <c r="H23">
-        <v>1608.944457238839</v>
+        <v>1614.606843031631</v>
       </c>
       <c r="I23">
-        <v>-667.7230560795623</v>
+        <v>-716.3176368984256</v>
       </c>
       <c r="J23">
-        <v>936.858093606666</v>
+        <v>938.1566722605717</v>
       </c>
       <c r="K23">
-        <v>3195.47370423777</v>
+        <v>3079.438498314856</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>65.9116084540389</v>
+        <v>63.14513881176287</v>
       </c>
       <c r="G24">
-        <v>152.7921386776863</v>
+        <v>153.3880548304638</v>
       </c>
       <c r="H24">
-        <v>1669.04160748049</v>
+        <v>1674.873078127985</v>
       </c>
       <c r="I24">
-        <v>-666.5321136329007</v>
+        <v>-617.8649647405014</v>
       </c>
       <c r="J24">
-        <v>920.0614953406495</v>
+        <v>930.6839116707042</v>
       </c>
       <c r="K24">
-        <v>3307.263609943143</v>
+        <v>3122.557851545425</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.80163566758575</v>
+        <v>63.21125454544308</v>
       </c>
       <c r="G25">
-        <v>161.2520010689602</v>
+        <v>164.1937230070702</v>
       </c>
       <c r="H25">
-        <v>1706.798143957852</v>
+        <v>1656.320485284713</v>
       </c>
       <c r="I25">
-        <v>-609.7229908518161</v>
+        <v>-598.2011638304531</v>
       </c>
       <c r="J25">
-        <v>924.4662849709036</v>
+        <v>863.06579182396</v>
       </c>
       <c r="K25">
-        <v>3267.432631884877</v>
+        <v>3078.063729852003</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.31711186651246</v>
+        <v>58.55993893268366</v>
       </c>
       <c r="G26">
-        <v>181.8791224117284</v>
+        <v>175.3660026841245</v>
       </c>
       <c r="H26">
-        <v>1692.652239774194</v>
+        <v>1744.492511581576</v>
       </c>
       <c r="I26">
-        <v>-554.4905290360539</v>
+        <v>-526.3655828186282</v>
       </c>
       <c r="J26">
-        <v>871.1029627739417</v>
+        <v>841.1635931786587</v>
       </c>
       <c r="K26">
-        <v>3019.533620183815</v>
+        <v>2980.348645440167</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.92644515358003</v>
+        <v>59.83474572090681</v>
       </c>
       <c r="G27">
-        <v>200.5434330417987</v>
+        <v>197.7359660366505</v>
       </c>
       <c r="H27">
-        <v>1680.888197247116</v>
+        <v>1655.533663635163</v>
       </c>
       <c r="I27">
-        <v>-504.3943291449005</v>
+        <v>-493.2807384161746</v>
       </c>
       <c r="J27">
-        <v>755.8180474424361</v>
+        <v>780.7525602548602</v>
       </c>
       <c r="K27">
-        <v>3111.855890374239</v>
+        <v>3151.627894768656</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.26795593055683</v>
+        <v>58.02673030757297</v>
       </c>
       <c r="G28">
-        <v>205.7656320380972</v>
+        <v>220.5273111399262</v>
       </c>
       <c r="H28">
-        <v>1705.444541154221</v>
+        <v>1715.933861917208</v>
       </c>
       <c r="I28">
-        <v>-428.971629311054</v>
+        <v>-427.504271683048</v>
       </c>
       <c r="J28">
-        <v>708.5929267942037</v>
+        <v>709.7443903755349</v>
       </c>
       <c r="K28">
-        <v>3089.027530803598</v>
+        <v>2916.378217804443</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.95265618284498</v>
+        <v>52.52241642709325</v>
       </c>
       <c r="G29">
-        <v>237.4884647182304</v>
+        <v>232.5526880766316</v>
       </c>
       <c r="H29">
-        <v>1701.534609231956</v>
+        <v>1737.621003904115</v>
       </c>
       <c r="I29">
-        <v>-394.440840160382</v>
+        <v>-391.6585570721268</v>
       </c>
       <c r="J29">
-        <v>662.6949708713659</v>
+        <v>654.1943479488946</v>
       </c>
       <c r="K29">
-        <v>2743.249342939405</v>
+        <v>3023.621366167888</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.82221224075116</v>
+        <v>52.33812668770529</v>
       </c>
       <c r="G30">
-        <v>236.7383517891057</v>
+        <v>243.8841674742002</v>
       </c>
       <c r="H30">
-        <v>1814.523486793822</v>
+        <v>1771.680174425435</v>
       </c>
       <c r="I30">
-        <v>-325.7447183115285</v>
+        <v>-319.5344221305619</v>
       </c>
       <c r="J30">
-        <v>645.4710517013469</v>
+        <v>615.3927447807772</v>
       </c>
       <c r="K30">
-        <v>2904.707992492434</v>
+        <v>2723.782189263762</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.14446246965384</v>
+        <v>49.92730335509688</v>
       </c>
       <c r="G31">
-        <v>257.9441422816988</v>
+        <v>251.242189901037</v>
       </c>
       <c r="H31">
-        <v>1849.917031455133</v>
+        <v>1733.911165110696</v>
       </c>
       <c r="I31">
-        <v>-263.5428344945609</v>
+        <v>-271.2913004012195</v>
       </c>
       <c r="J31">
-        <v>593.444422650458</v>
+        <v>580.5612874510772</v>
       </c>
       <c r="K31">
-        <v>2770.07893642843</v>
+        <v>2752.259827569403</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.38012617048236</v>
+        <v>49.16535139623365</v>
       </c>
       <c r="G32">
-        <v>273.3349284539326</v>
+        <v>270.8346527348804</v>
       </c>
       <c r="H32">
-        <v>1831.715725696266</v>
+        <v>1826.459988860635</v>
       </c>
       <c r="I32">
-        <v>-213.5060735843428</v>
+        <v>-210.2469195010601</v>
       </c>
       <c r="J32">
-        <v>561.4776342169184</v>
+        <v>538.8115532353142</v>
       </c>
       <c r="K32">
-        <v>2468.124041111314</v>
+        <v>2522.857981230113</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.70185229272668</v>
+        <v>50.51355491357479</v>
       </c>
       <c r="G33">
-        <v>289.7019294322858</v>
+        <v>310.6664682420087</v>
       </c>
       <c r="H33">
-        <v>1758.79081568293</v>
+        <v>1744.252523983899</v>
       </c>
       <c r="I33">
-        <v>-146.4808487921242</v>
+        <v>-143.8798589184266</v>
       </c>
       <c r="J33">
-        <v>488.3914521313462</v>
+        <v>470.1988188477082</v>
       </c>
       <c r="K33">
-        <v>2262.183382437261</v>
+        <v>2316.256313136595</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.93760546937335</v>
+        <v>47.84462467923296</v>
       </c>
       <c r="G34">
-        <v>327.7613750311866</v>
+        <v>306.3205348620284</v>
       </c>
       <c r="H34">
-        <v>1841.641217166025</v>
+        <v>1847.444127186141</v>
       </c>
       <c r="I34">
-        <v>-84.99004899418658</v>
+        <v>-83.41780007615236</v>
       </c>
       <c r="J34">
-        <v>436.2343889013922</v>
+        <v>430.9833300917381</v>
       </c>
       <c r="K34">
-        <v>2294.506161164042</v>
+        <v>2182.611934729476</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.42781086472866</v>
+        <v>47.20683504535378</v>
       </c>
       <c r="G35">
-        <v>338.1599851481868</v>
+        <v>329.3719903409241</v>
       </c>
       <c r="H35">
-        <v>1799.770515441658</v>
+        <v>1805.807583919893</v>
       </c>
       <c r="I35">
-        <v>-19.16197856394462</v>
+        <v>-17.99842804692223</v>
       </c>
       <c r="J35">
-        <v>401.8362379615245</v>
+        <v>411.9876275022506</v>
       </c>
       <c r="K35">
-        <v>2014.672986999942</v>
+        <v>2071.704964441644</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.04418896820665</v>
+        <v>45.27107578545512</v>
       </c>
       <c r="G36">
-        <v>331.0503148283819</v>
+        <v>346.6864272547407</v>
       </c>
       <c r="H36">
-        <v>1895.316621984192</v>
+        <v>1742.515176193819</v>
       </c>
       <c r="I36">
-        <v>47.02945834733937</v>
+        <v>45.91179938471467</v>
       </c>
       <c r="J36">
-        <v>361.764226106304</v>
+        <v>352.0501186097055</v>
       </c>
       <c r="K36">
-        <v>1743.498190014535</v>
+        <v>1792.003354307633</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.42459576993202</v>
+        <v>48.71781873183912</v>
       </c>
       <c r="G37">
-        <v>357.8512470220595</v>
+        <v>350.2983496128217</v>
       </c>
       <c r="H37">
-        <v>1920.373563305692</v>
+        <v>1912.943748794246</v>
       </c>
       <c r="I37">
-        <v>113.7051728255568</v>
+        <v>112.5458118577007</v>
       </c>
       <c r="J37">
-        <v>296.679321237011</v>
+        <v>302.0668632654046</v>
       </c>
       <c r="K37">
-        <v>1668.622678708928</v>
+        <v>1582.690052914053</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.44636911494815</v>
+        <v>43.51205985321533</v>
       </c>
       <c r="G38">
-        <v>382.7742066444511</v>
+        <v>361.4879843715627</v>
       </c>
       <c r="H38">
-        <v>1927.335330591144</v>
+        <v>1883.1259987535</v>
       </c>
       <c r="I38">
-        <v>182.8191687069215</v>
+        <v>183.1248587337607</v>
       </c>
       <c r="J38">
-        <v>251.6052065051108</v>
+        <v>243.2645934881786</v>
       </c>
       <c r="K38">
-        <v>1396.575740562614</v>
+        <v>1433.066238168788</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.73287423032044</v>
+        <v>43.93525150610466</v>
       </c>
       <c r="G39">
-        <v>379.4325604425887</v>
+        <v>383.3018440025709</v>
       </c>
       <c r="H39">
-        <v>1787.952322590732</v>
+        <v>1936.453298354704</v>
       </c>
       <c r="I39">
-        <v>266.2796226103841</v>
+        <v>243.2787581996453</v>
       </c>
       <c r="J39">
-        <v>198.4982062975855</v>
+        <v>199.5598929415569</v>
       </c>
       <c r="K39">
-        <v>1204.129879023229</v>
+        <v>1191.152051045629</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.66319840618588</v>
+        <v>46.33363283360222</v>
       </c>
       <c r="G40">
-        <v>402.5430597228407</v>
+        <v>394.4563449067628</v>
       </c>
       <c r="H40">
-        <v>1920.198555397399</v>
+        <v>1964.239125647261</v>
       </c>
       <c r="I40">
-        <v>322.9446989782507</v>
+        <v>324.7610837155648</v>
       </c>
       <c r="J40">
-        <v>143.6936580174644</v>
+        <v>148.7082188609745</v>
       </c>
       <c r="K40">
-        <v>929.755880000238</v>
+        <v>864.4834076773484</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.97810882623565</v>
+        <v>44.65671905273467</v>
       </c>
       <c r="G41">
-        <v>408.8005883799021</v>
+        <v>421.8978515530487</v>
       </c>
       <c r="H41">
-        <v>1802.643377716782</v>
+        <v>1814.789804491629</v>
       </c>
       <c r="I41">
-        <v>388.7701860500314</v>
+        <v>399.9532744081084</v>
       </c>
       <c r="J41">
-        <v>97.74166748852505</v>
+        <v>107.2419070912659</v>
       </c>
       <c r="K41">
-        <v>607.3139909373469</v>
+        <v>650.1529146960418</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.9927959527482</v>
+        <v>44.91764907648123</v>
       </c>
       <c r="G42">
-        <v>430.8839296248584</v>
+        <v>440.2833890667108</v>
       </c>
       <c r="H42">
-        <v>1843.290697417892</v>
+        <v>1958.523320158867</v>
       </c>
       <c r="I42">
-        <v>475.6992909316165</v>
+        <v>474.4804496631702</v>
       </c>
       <c r="J42">
-        <v>54.21456220756441</v>
+        <v>52.4860505648975</v>
       </c>
       <c r="K42">
-        <v>352.0942411027783</v>
+        <v>352.0501672650588</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.38456734810142</v>
+        <v>41.00519725354403</v>
       </c>
       <c r="G43">
-        <v>459.4289306465205</v>
+        <v>441.0778515830665</v>
       </c>
       <c r="H43">
-        <v>1910.259467156704</v>
+        <v>1856.473214747669</v>
       </c>
       <c r="I43">
-        <v>561.8794805577804</v>
+        <v>552.1582021482191</v>
       </c>
       <c r="J43">
-        <v>5.379916612777252</v>
+        <v>5.149458313902075</v>
       </c>
       <c r="K43">
-        <v>34.77912573950511</v>
+        <v>33.26708070466498</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.06116650913703</v>
+        <v>40.7708646530677</v>
       </c>
       <c r="G44">
-        <v>487.5590785104744</v>
+        <v>472.765078769809</v>
       </c>
       <c r="H44">
-        <v>1889.204268671677</v>
+        <v>1884.509678193634</v>
       </c>
       <c r="I44">
-        <v>652.5736320417379</v>
+        <v>621.4504962646415</v>
       </c>
       <c r="J44">
-        <v>-41.33076963792214</v>
+        <v>-45.20735174010883</v>
       </c>
       <c r="K44">
-        <v>-281.3397628238533</v>
+        <v>-294.460752240497</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.43789405046424</v>
+        <v>42.93698933575219</v>
       </c>
       <c r="G45">
-        <v>473.133522365532</v>
+        <v>501.0309684861059</v>
       </c>
       <c r="H45">
-        <v>1881.426296309152</v>
+        <v>1955.538414356472</v>
       </c>
       <c r="I45">
-        <v>707.4576542028608</v>
+        <v>711.8293461117642</v>
       </c>
       <c r="J45">
-        <v>-89.77440009468846</v>
+        <v>-90.45498988883892</v>
       </c>
       <c r="K45">
-        <v>-626.9717521752939</v>
+        <v>-598.9171098835467</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.21038467733227</v>
+        <v>41.73345425124633</v>
       </c>
       <c r="G46">
-        <v>530.4811075009383</v>
+        <v>507.063390841637</v>
       </c>
       <c r="H46">
-        <v>1971.146052222154</v>
+        <v>1864.367025453201</v>
       </c>
       <c r="I46">
-        <v>812.966778931405</v>
+        <v>812.1412044863375</v>
       </c>
       <c r="J46">
-        <v>-143.0716139003368</v>
+        <v>-141.8793579048654</v>
       </c>
       <c r="K46">
-        <v>-973.6931499735989</v>
+        <v>-946.5127423117167</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.51217916741147</v>
+        <v>39.20960353632127</v>
       </c>
       <c r="G47">
-        <v>534.1089985575334</v>
+        <v>525.3910108063874</v>
       </c>
       <c r="H47">
-        <v>1940.38996513432</v>
+        <v>1997.07215198378</v>
       </c>
       <c r="I47">
-        <v>850.867336357182</v>
+        <v>873.2309494129847</v>
       </c>
       <c r="J47">
-        <v>-192.4814509692557</v>
+        <v>-194.0428541808021</v>
       </c>
       <c r="K47">
-        <v>-1280.710727624386</v>
+        <v>-1338.47550404915</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.70712430565874</v>
+        <v>41.22931258170237</v>
       </c>
       <c r="G48">
-        <v>569.232912310917</v>
+        <v>554.7390806379133</v>
       </c>
       <c r="H48">
-        <v>1967.407033137442</v>
+        <v>1944.67461918026</v>
       </c>
       <c r="I48">
-        <v>1014.281503462528</v>
+        <v>966.8308120086969</v>
       </c>
       <c r="J48">
-        <v>-229.6769027406112</v>
+        <v>-242.7296593299276</v>
       </c>
       <c r="K48">
-        <v>-1787.108266654195</v>
+        <v>-1754.516569769526</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.01168829287757</v>
+        <v>39.23290778871073</v>
       </c>
       <c r="G49">
-        <v>581.5947590573634</v>
+        <v>532.9898889823735</v>
       </c>
       <c r="H49">
-        <v>1925.705978192859</v>
+        <v>2024.688184665779</v>
       </c>
       <c r="I49">
-        <v>1085.822269311691</v>
+        <v>1096.533792008287</v>
       </c>
       <c r="J49">
-        <v>-300.8709863370001</v>
+        <v>-276.3911237399729</v>
       </c>
       <c r="K49">
-        <v>-2097.787534303409</v>
+        <v>-2178.843908780203</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.64219025858348</v>
+        <v>39.27422309487562</v>
       </c>
       <c r="G50">
-        <v>592.7258318314175</v>
+        <v>575.357976435787</v>
       </c>
       <c r="H50">
-        <v>1914.392941034581</v>
+        <v>1885.824875879588</v>
       </c>
       <c r="I50">
-        <v>1114.849729147486</v>
+        <v>1122.072322600974</v>
       </c>
       <c r="J50">
-        <v>-330.2934459118474</v>
+        <v>-327.8435839414395</v>
       </c>
       <c r="K50">
-        <v>-2389.908677282551</v>
+        <v>-2515.365362147832</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.86824995250987</v>
+        <v>38.29028305610402</v>
       </c>
       <c r="G51">
-        <v>609.5201178863271</v>
+        <v>595.196794298647</v>
       </c>
       <c r="H51">
-        <v>1898.196358794622</v>
+        <v>1947.3380613266</v>
       </c>
       <c r="I51">
-        <v>1216.613536801318</v>
+        <v>1231.556466789877</v>
       </c>
       <c r="J51">
-        <v>-396.7086492331813</v>
+        <v>-394.1259252383658</v>
       </c>
       <c r="K51">
-        <v>-3056.401785046443</v>
+        <v>-3056.192275020856</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.79756247395356</v>
+        <v>36.87280126280884</v>
       </c>
       <c r="G52">
-        <v>630.083271663686</v>
+        <v>625.7349624029736</v>
       </c>
       <c r="H52">
-        <v>2062.145544703354</v>
+        <v>1881.010772858436</v>
       </c>
       <c r="I52">
-        <v>1319.385881538245</v>
+        <v>1392.678593720888</v>
       </c>
       <c r="J52">
-        <v>-448.6089886172995</v>
+        <v>-431.7713624173372</v>
       </c>
       <c r="K52">
-        <v>-3401.97898221989</v>
+        <v>-3396.375573771699</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.59693992785687</v>
+        <v>36.13432519552213</v>
       </c>
       <c r="G53">
-        <v>629.2406658908817</v>
+        <v>623.4513762742265</v>
       </c>
       <c r="H53">
-        <v>1964.38736547771</v>
+        <v>1892.306547415054</v>
       </c>
       <c r="I53">
-        <v>1424.422159248591</v>
+        <v>1407.729333809263</v>
       </c>
       <c r="J53">
-        <v>-484.419253092555</v>
+        <v>-492.7604342944145</v>
       </c>
       <c r="K53">
-        <v>-3897.307456449284</v>
+        <v>-3879.788383206945</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.91408058900498</v>
+        <v>37.93880426173006</v>
       </c>
       <c r="G54">
-        <v>633.5109580447133</v>
+        <v>619.7575415293785</v>
       </c>
       <c r="H54">
-        <v>2044.041908710481</v>
+        <v>1992.909480246672</v>
       </c>
       <c r="I54">
-        <v>1553.062973536005</v>
+        <v>1563.176414487424</v>
       </c>
       <c r="J54">
-        <v>-534.2985834753964</v>
+        <v>-513.7836722714067</v>
       </c>
       <c r="K54">
-        <v>-4467.23006318837</v>
+        <v>-4392.93212302588</v>
       </c>
     </row>
   </sheetData>
